--- a/src/test/resources/testdata/ToDoAppData.xlsx
+++ b/src/test/resources/testdata/ToDoAppData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/varsha.tiwari/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/varsha.tiwari/Documents/Appium_Resources/ToDoAppUIAuotmation/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D9F8A18-A9CE-BE49-9E60-C5B525AC676D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B23114-F9B1-9547-85B4-1BADDA1DEC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="27520" windowHeight="16940" xr2:uid="{FB27EF6D-5C91-724C-B03D-60890F65E88C}"/>
+    <workbookView xWindow="380" yWindow="1060" windowWidth="27520" windowHeight="16940" xr2:uid="{FB27EF6D-5C91-724C-B03D-60890F65E88C}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -38,16 +38,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>ListOfItems</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
-    <t>["testing", "shopping", "owrjdfnd", "43545#@@", "party!!"</t>
+    <t>Items</t>
   </si>
   <si>
-    <t>["complete", "in progress", "complete", "complete", "in progress"]</t>
+    <t>testing,shopping,owrjdfnd,43545#@@,party!!</t>
+  </si>
+  <si>
+    <t>complete,in_progress,complete,complete,in_progress</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -414,10 +414,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
